--- a/metadata/_dataset_strings_Dvorak.xlsx
+++ b/metadata/_dataset_strings_Dvorak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_TACR\repo\Classification-of-interpretation-differences\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF927246-965C-499E-A1A2-F70BFD01835A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81594592-3816-4242-BAD6-1AA9FB98D9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="413">
   <si>
     <t>Name</t>
   </si>
@@ -1274,6 +1274,9 @@
   </si>
   <si>
     <t>018</t>
+  </si>
+  <si>
+    <t>label_random</t>
   </si>
 </sst>
 </file>
@@ -1662,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H77"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1676,7 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -1701,8 +1704,11 @@
       <c r="I1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>254</v>
       </c>
@@ -1727,8 +1733,11 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -1753,8 +1762,11 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -1779,8 +1791,11 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>257</v>
       </c>
@@ -1805,8 +1820,11 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -1831,8 +1849,11 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -1857,8 +1878,11 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -1883,8 +1907,11 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>258</v>
       </c>
@@ -1909,8 +1936,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -1935,8 +1965,11 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -1961,8 +1994,11 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -1987,8 +2023,11 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -2013,8 +2052,11 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -2039,8 +2081,11 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -2065,8 +2110,11 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -2091,8 +2139,11 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -2117,8 +2168,11 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -2143,8 +2197,11 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -2169,8 +2226,11 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -2195,8 +2255,11 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>271</v>
       </c>
@@ -2221,8 +2284,11 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>272</v>
       </c>
@@ -2247,8 +2313,11 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>273</v>
       </c>
@@ -2273,8 +2342,11 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>274</v>
       </c>
@@ -2299,8 +2371,11 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -2325,8 +2400,11 @@
       <c r="I25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>276</v>
       </c>
@@ -2351,8 +2429,11 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>280</v>
       </c>
@@ -2377,8 +2458,11 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>281</v>
       </c>
@@ -2403,8 +2487,11 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -2429,8 +2516,11 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>283</v>
       </c>
@@ -2455,8 +2545,11 @@
       <c r="I30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>284</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="I31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -2507,8 +2603,11 @@
       <c r="I32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -2533,8 +2632,11 @@
       <c r="I33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>287</v>
       </c>
@@ -2559,8 +2661,11 @@
       <c r="I34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -2585,8 +2690,11 @@
       <c r="I35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>289</v>
       </c>
@@ -2611,8 +2719,11 @@
       <c r="I36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>290</v>
       </c>
@@ -2637,8 +2748,11 @@
       <c r="I37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -2663,8 +2777,11 @@
       <c r="I38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>292</v>
       </c>
@@ -2689,8 +2806,11 @@
       <c r="I39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -2715,8 +2835,11 @@
       <c r="I40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>294</v>
       </c>
@@ -2741,8 +2864,11 @@
       <c r="I41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>295</v>
       </c>
@@ -2767,8 +2893,11 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>296</v>
       </c>
@@ -2793,8 +2922,11 @@
       <c r="I43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>297</v>
       </c>
@@ -2819,8 +2951,11 @@
       <c r="I44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>298</v>
       </c>
@@ -2845,8 +2980,11 @@
       <c r="I45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -2871,8 +3009,11 @@
       <c r="I46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>300</v>
       </c>
@@ -2897,8 +3038,11 @@
       <c r="I47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>301</v>
       </c>
@@ -2923,8 +3067,11 @@
       <c r="I48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>302</v>
       </c>
@@ -2949,8 +3096,11 @@
       <c r="I49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>303</v>
       </c>
@@ -2975,8 +3125,11 @@
       <c r="I50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>304</v>
       </c>
@@ -3001,8 +3154,11 @@
       <c r="I51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -3027,8 +3183,11 @@
       <c r="I52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>306</v>
       </c>
@@ -3053,8 +3212,11 @@
       <c r="I53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>307</v>
       </c>
@@ -3079,8 +3241,11 @@
       <c r="I54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>308</v>
       </c>
@@ -3105,8 +3270,11 @@
       <c r="I55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>309</v>
       </c>
@@ -3131,8 +3299,11 @@
       <c r="I56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>310</v>
       </c>
@@ -3157,8 +3328,11 @@
       <c r="I57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>311</v>
       </c>
@@ -3183,8 +3357,11 @@
       <c r="I58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>312</v>
       </c>
@@ -3209,8 +3386,11 @@
       <c r="I59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>313</v>
       </c>
@@ -3235,8 +3415,11 @@
       <c r="I60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>314</v>
       </c>
@@ -3264,8 +3447,11 @@
       <c r="I61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>315</v>
       </c>
@@ -3293,8 +3479,11 @@
       <c r="I62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -3319,8 +3508,11 @@
       <c r="I63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>317</v>
       </c>
@@ -3345,8 +3537,11 @@
       <c r="I64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>318</v>
       </c>
@@ -3374,8 +3569,11 @@
       <c r="I65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>319</v>
       </c>
@@ -3400,8 +3598,11 @@
       <c r="I66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>320</v>
       </c>
@@ -3426,8 +3627,11 @@
       <c r="I67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>321</v>
       </c>
@@ -3452,8 +3656,11 @@
       <c r="I68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>322</v>
       </c>
@@ -3478,8 +3685,11 @@
       <c r="I69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>323</v>
       </c>
@@ -3504,8 +3714,11 @@
       <c r="I70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>324</v>
       </c>
@@ -3533,8 +3746,11 @@
       <c r="I71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>325</v>
       </c>
@@ -3559,8 +3775,11 @@
       <c r="I72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>326</v>
       </c>
@@ -3585,8 +3804,11 @@
       <c r="I73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>327</v>
       </c>
@@ -3611,8 +3833,11 @@
       <c r="I74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>328</v>
       </c>
@@ -3637,8 +3862,11 @@
       <c r="I75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>329</v>
       </c>
@@ -3663,8 +3891,11 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>330</v>
       </c>
@@ -3690,6 +3921,9 @@
         <v>410</v>
       </c>
       <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <v>0</v>
       </c>
     </row>
@@ -3701,15 +3935,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE4C9DD-9004-4D2A-A165-20B2CD0CE88A}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G26"/>
+      <selection activeCell="I26" sqref="I2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>253</v>
       </c>
@@ -3734,8 +3968,11 @@
       <c r="H1" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>254</v>
       </c>
@@ -3760,8 +3997,11 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>255</v>
       </c>
@@ -3786,8 +4026,11 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>256</v>
       </c>
@@ -3812,8 +4055,11 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>257</v>
       </c>
@@ -3838,8 +4084,11 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>277</v>
       </c>
@@ -3864,8 +4113,11 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>278</v>
       </c>
@@ -3890,8 +4142,11 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>279</v>
       </c>
@@ -3916,8 +4171,11 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>258</v>
       </c>
@@ -3942,8 +4200,11 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>259</v>
       </c>
@@ -3968,8 +4229,11 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>260</v>
       </c>
@@ -3994,8 +4258,11 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>261</v>
       </c>
@@ -4020,8 +4287,11 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>262</v>
       </c>
@@ -4046,8 +4316,11 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>263</v>
       </c>
@@ -4072,8 +4345,11 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>264</v>
       </c>
@@ -4098,8 +4374,11 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>265</v>
       </c>
@@ -4124,8 +4403,11 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>266</v>
       </c>
@@ -4150,8 +4432,11 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>267</v>
       </c>
@@ -4176,8 +4461,11 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>268</v>
       </c>
@@ -4202,8 +4490,11 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>269</v>
       </c>
@@ -4228,8 +4519,11 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>270</v>
       </c>
@@ -4254,8 +4548,11 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>271</v>
       </c>
@@ -4280,8 +4577,11 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>272</v>
       </c>
@@ -4306,8 +4606,11 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>273</v>
       </c>
@@ -4332,8 +4635,11 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>274</v>
       </c>
@@ -4358,8 +4664,11 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>275</v>
       </c>
@@ -4382,6 +4691,9 @@
         <v>358</v>
       </c>
       <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
     </row>
@@ -4393,15 +4705,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65EA872-D3A7-49B8-9616-4BEB26E39835}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>253</v>
       </c>
@@ -4429,8 +4741,11 @@
       <c r="I1" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>254</v>
       </c>
@@ -4456,8 +4771,11 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>255</v>
       </c>
@@ -4483,8 +4801,11 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>256</v>
       </c>
@@ -4510,8 +4831,11 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>257</v>
       </c>
@@ -4537,8 +4861,11 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>258</v>
       </c>
@@ -4564,8 +4891,11 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>259</v>
       </c>
@@ -4591,8 +4921,11 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>260</v>
       </c>
@@ -4618,8 +4951,11 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>261</v>
       </c>
@@ -4645,8 +4981,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>262</v>
       </c>
@@ -4672,8 +5011,11 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>263</v>
       </c>
@@ -4699,8 +5041,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>264</v>
       </c>
@@ -4726,8 +5071,11 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>265</v>
       </c>
@@ -4753,8 +5101,11 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>266</v>
       </c>
@@ -4780,8 +5131,11 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
@@ -4807,8 +5161,11 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>268</v>
       </c>
@@ -4834,8 +5191,11 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>269</v>
       </c>
@@ -4861,8 +5221,11 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>270</v>
       </c>
@@ -4890,8 +5253,11 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>271</v>
       </c>
@@ -4917,8 +5283,11 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>272</v>
       </c>
@@ -4944,8 +5313,11 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>273</v>
       </c>
@@ -4971,8 +5343,11 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>274</v>
       </c>
@@ -4998,8 +5373,11 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>275</v>
       </c>
@@ -5025,8 +5403,11 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>276</v>
       </c>
@@ -5051,6 +5432,9 @@
       </c>
       <c r="I24" s="1">
         <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
